--- a/homeaharaa_Automation/src/main/resources/TestDataSheet.xlsx
+++ b/homeaharaa_Automation/src/main/resources/TestDataSheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>TCName</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t>Weight</t>
+  </si>
+  <si>
+    <t>Price</t>
   </si>
   <si>
     <t>TC_ReadymadePowders</t>
@@ -66,10 +69,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -88,6 +91,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -95,6 +106,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -103,22 +121,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -132,18 +144,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -163,22 +168,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -186,6 +175,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -194,6 +197,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
@@ -203,22 +214,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,12 +236,90 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -251,7 +332,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -263,157 +416,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -424,30 +427,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -462,6 +441,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -490,6 +478,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -507,15 +519,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -527,148 +530,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -996,8 +999,8 @@
   <sheetPr/>
   <dimension ref="A1:BV25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1015,7 +1018,7 @@
     <col min="75" max="75" width="11.7142857142857"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1046,42 +1049,45 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="J2">
+        <v>250</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:8">
       <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3"/>
-      <c r="F3"/>
-      <c r="G3"/>
-      <c r="H3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4" spans="3:4">
